--- a/REVER_DailyTracker_20200518.xlsx
+++ b/REVER_DailyTracker_20200518.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9F9FA-616F-4E10-A7CD-EB6134D53E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD8A95-F93B-4288-92F5-02E5EF8573B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,16 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -61,84 +66,51 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
     <t>[Backend] CRM</t>
   </si>
   <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>DotnetAPP</t>
-  </si>
-  <si>
-    <t>Loginpage (Frontend)</t>
-  </si>
-  <si>
-    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
-2. Customer type dropdownlist has been created using using enum and displayed in right order
-3. Working on onchange events to select all emailid based on customer types.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
- PHP and MYQL
-</t>
-  </si>
-  <si>
-    <t>Hayaai website</t>
-  </si>
-  <si>
-    <t>Sending email is in progress</t>
-  </si>
-  <si>
-    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
-We are waiting for actual email settings for hayaai site.</t>
-  </si>
-  <si>
-    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
-  </si>
-  <si>
-    <t>RPA_Sale/[Front End]  Full app keyword search</t>
-  </si>
-  <si>
-    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
-the result with paging and pagelisted concept in MVC</t>
-  </si>
-  <si>
-    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
-  </si>
-  <si>
-    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
- like styling and crossref link or sublink tasks are pending.</t>
-  </si>
-  <si>
-    <t>[Back End] Video Feedback and Comments</t>
-  </si>
-  <si>
-    <t>RPA_Sale</t>
-  </si>
-  <si>
-    <t>Integration of RPA_Sales</t>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
   </si>
   <si>
     <t>MujiStore</t>
   </si>
   <si>
-    <t>Subnet Integration for Troubleshooting</t>
-  </si>
-  <si>
-    <t>Code meging from Ram source code</t>
-  </si>
-  <si>
-    <t>Muji Store Deployment</t>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Website - resized fully and rechange spaces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +140,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -260,25 +225,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,69 +248,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -666,22 +596,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -705,200 +634,28 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>90</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="D12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>95</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:7">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -951,7 +708,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -960,172 +717,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43969</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43969</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>43969</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1151,46 +759,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>43966</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>24</v>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43966</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1235,7 +833,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1244,24 +842,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1287,22 +884,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1347,7 +968,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1356,24 +977,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1400,24 +1020,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1471,7 +1079,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1480,24 +1088,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1583,7 +1190,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1592,24 +1199,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43970</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1695,7 +1413,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1704,24 +1422,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1807,7 +1524,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1816,24 +1533,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1919,7 +1635,118 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200518.xlsx
+++ b/REVER_DailyTracker_20200518.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD8A95-F93B-4288-92F5-02E5EF8573B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECFA03-8274-403E-8A9C-C334141D1345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -66,41 +72,56 @@
     <t>% of completion</t>
   </si>
   <si>
-    <t>RPA Dotnet</t>
-  </si>
-  <si>
     <t>[Backend] CRM</t>
   </si>
   <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
-if any changes or modification can be done.</t>
-  </si>
-  <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
-  </si>
-  <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>Website - resized fully and rechange spaces</t>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
+2. Customer type dropdownlist has been created using using enum and displayed in right order
+3. Working on onchange events to select all emailid based on customer types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
+ PHP and MYQL
+</t>
+  </si>
+  <si>
+    <t>Hayaai website</t>
+  </si>
+  <si>
+    <t>Sending email is in progress</t>
+  </si>
+  <si>
+    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
+We are waiting for actual email settings for hayaai site.</t>
+  </si>
+  <si>
+    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
+  </si>
+  <si>
+    <t>RPA_Sale/[Front End]  Full app keyword search</t>
+  </si>
+  <si>
+    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
+the result with paging and pagelisted concept in MVC</t>
+  </si>
+  <si>
+    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
+  </si>
+  <si>
+    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
+ like styling and crossref link or sublink tasks are pending.</t>
+  </si>
+  <si>
+    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
   </si>
 </sst>
 </file>
@@ -110,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,22 +152,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -225,13 +230,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -248,43 +250,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,25 +582,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -634,30 +622,216 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="17" t="s">
+    </row>
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G25" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -666,49 +840,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -717,26 +891,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -759,30 +934,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -791,184 +952,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -978,25 +1004,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1028,7 +1055,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1037,49 +1064,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1089,25 +1116,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1139,7 +1167,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1148,49 +1176,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1200,25 +1228,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1241,68 +1270,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43970</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.85</v>
-      </c>
-      <c r="F2" s="10" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>12</v>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1312,25 +1352,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1362,7 +1403,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1371,49 +1412,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1423,25 +1464,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1473,7 +1515,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1482,49 +1524,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1534,25 +1576,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1584,7 +1627,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1593,49 +1636,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1645,25 +1688,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1695,7 +1739,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1704,49 +1748,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200518.xlsx
+++ b/REVER_DailyTracker_20200518.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECFA03-8274-403E-8A9C-C334141D1345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81F208-1DC9-4F1A-B139-BBE6C046A471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
+  </si>
+  <si>
+    <t>Macro pending work completed</t>
+  </si>
+  <si>
+    <t>Python project setup for Mohan San code</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,6 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +593,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G27" sqref="G27:G28"/>
     </sheetView>
   </sheetViews>
@@ -1120,8 +1127,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,18 +1169,26 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
